--- a/biology/Histoire de la zoologie et de la botanique/Armand_de_Ricqlès/Armand_de_Ricqlès.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Armand_de_Ricqlès/Armand_de_Ricqlès.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Armand_de_Ricql%C3%A8s</t>
+          <t>Armand_de_Ricqlès</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Armand de Ricqlès, né le 23 décembre 1938 à Bruxelles (Belgique), est un paléontologue et biologiste français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Armand_de_Ricql%C3%A8s</t>
+          <t>Armand_de_Ricqlès</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Armand de Ricqlès fit des études en sciences naturelles à la faculté des sciences de Paris en 1960 et obtint un doctorat és sciences en 1963. Sa thèse sur le thème de l'histologie fut supervisée par le professeur Marcel Prenant. Il obtint un doctorat d'État (histologie et cytologie). Sa thèse fut publiée dans plusieurs revues dont les Annales de paléontologie.
 De 1975 à 1982, il fut chargé de cours dans les domaines de l'anatomie comparée, la paléontologie, la biosystémique et la zoologie.
